--- a/Employee_Reports35/Mohamed Riswan Mohamed Salyh Q0334.xlsx
+++ b/Employee_Reports35/Mohamed Riswan Mohamed Salyh Q0334.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1578,11 +1578,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1676,11 +1676,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1713,11 +1713,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1750,11 +1750,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">

--- a/Employee_Reports35/Mohamed Riswan Mohamed Salyh Q0334.xlsx
+++ b/Employee_Reports35/Mohamed Riswan Mohamed Salyh Q0334.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1578,11 +1578,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1676,11 +1676,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1713,11 +1713,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1750,11 +1750,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
